--- a/undergraduate/files/Data.xlsx
+++ b/undergraduate/files/Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBCBAD-1B93-7644-9614-B13A99A4A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E18C30-71E1-414A-8C04-484703CEEB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
-    <sheet name="TEtools" sheetId="3" r:id="rId2"/>
-    <sheet name="Transposons" sheetId="2" r:id="rId3"/>
-    <sheet name="curated TE library" sheetId="5" r:id="rId4"/>
+    <sheet name="1 Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
+    <sheet name="2 curated TE library" sheetId="5" r:id="rId2"/>
+    <sheet name="3 TEtools" sheetId="3" r:id="rId3"/>
+    <sheet name="4 Transposons" sheetId="2" r:id="rId4"/>
     <sheet name="reference genome annotation" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1525,14 +1525,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F705FDD1-2238-E24B-929D-FCA6BC6F278B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2177,10 +2177,135 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19502A9-FB38-5841-8BC1-FF47C4C2E941}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
@@ -2499,11 +2624,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
@@ -2524,33 +2649,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2609,16 +2734,16 @@
       <c r="R2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="32"/>
+      <c r="S2" s="30"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2650,9 +2775,9 @@
       </c>
     </row>
     <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="9" t="s">
         <v>172</v>
       </c>
@@ -2665,9 +2790,9 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2697,9 +2822,9 @@
       </c>
     </row>
     <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2712,9 +2837,9 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="14" t="s">
         <v>160</v>
       </c>
@@ -2744,9 +2869,9 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="14" t="s">
         <v>185</v>
       </c>
@@ -2777,9 +2902,9 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9" t="s">
         <v>170</v>
       </c>
@@ -2793,9 +2918,9 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="9" t="s">
         <v>272</v>
       </c>
@@ -2809,9 +2934,9 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="9" t="s">
         <v>271</v>
       </c>
@@ -2825,9 +2950,9 @@
       <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="9" t="s">
         <v>168</v>
       </c>
@@ -2841,9 +2966,9 @@
       <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="14" t="s">
         <v>183</v>
       </c>
@@ -2873,9 +2998,9 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="17" t="s">
         <v>134</v>
       </c>
@@ -2912,8 +3037,8 @@
       <c r="V14" s="19"/>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
@@ -2935,8 +3060,8 @@
       <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2980,8 +3105,8 @@
       <c r="X16" s="19"/>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
@@ -3008,11 +3133,11 @@
       <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="16" t="s">
         <v>134</v>
       </c>
@@ -3051,13 +3176,13 @@
       <c r="X18" s="19"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -3098,9 +3223,9 @@
       <c r="X19" s="19"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
@@ -3139,9 +3264,9 @@
       <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
@@ -3161,9 +3286,9 @@
       <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
@@ -3184,9 +3309,9 @@
       <c r="X22" s="19"/>
     </row>
     <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
@@ -3206,9 +3331,9 @@
       <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="9" t="s">
         <v>134</v>
       </c>
@@ -3245,9 +3370,9 @@
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3268,9 +3393,9 @@
       <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
@@ -3289,9 +3414,9 @@
       <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="9" t="s">
         <v>46</v>
       </c>
@@ -3310,8 +3435,8 @@
       <c r="X27" s="19"/>
     </row>
     <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="12" t="s">
         <v>47</v>
       </c>
@@ -3336,11 +3461,11 @@
       <c r="X28" s="19"/>
     </row>
     <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -3362,9 +3487,9 @@
       <c r="X29" s="19"/>
     </row>
     <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="9" t="s">
         <v>52</v>
       </c>
@@ -3384,9 +3509,9 @@
       <c r="X30" s="19"/>
     </row>
     <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="9" t="s">
         <v>53</v>
       </c>
@@ -3405,9 +3530,9 @@
       <c r="X31" s="19"/>
     </row>
     <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="14" t="s">
         <v>54</v>
       </c>
@@ -3427,9 +3552,9 @@
       <c r="X32" s="19"/>
     </row>
     <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="9" t="s">
         <v>146</v>
       </c>
@@ -3448,9 +3573,9 @@
       <c r="X33" s="19"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="15" t="s">
         <v>134</v>
       </c>
@@ -3487,11 +3612,11 @@
       <c r="X34" s="19"/>
     </row>
     <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
@@ -3511,9 +3636,9 @@
       <c r="X35" s="19"/>
     </row>
     <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
@@ -3534,9 +3659,9 @@
       <c r="X36" s="19"/>
     </row>
     <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="9" t="s">
         <v>58</v>
       </c>
@@ -3557,9 +3682,9 @@
       <c r="X37" s="19"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="9" t="s">
         <v>134</v>
       </c>
@@ -3596,11 +3721,11 @@
       <c r="X38" s="19"/>
     </row>
     <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
@@ -3624,10 +3749,10 @@
       <c r="A40" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="17" t="s">
         <v>134</v>
       </c>
@@ -3711,14 +3836,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="I1:L1"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:B15"/>
@@ -3730,135 +3847,18 @@
     <mergeCell ref="B35:C38"/>
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19502A9-FB38-5841-8BC1-FF47C4C2E941}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="3">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="3">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/undergraduate/files/Data.xlsx
+++ b/undergraduate/files/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E18C30-71E1-414A-8C04-484703CEEB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3FF9C-7CF7-664C-82AB-123E33BFBD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="37140" windowHeight="21100" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="286">
   <si>
     <t>Chrosome</t>
   </si>
@@ -147,6 +147,1167 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">T. monococcum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L.</t>
+    </r>
+  </si>
+  <si>
+    <t>AABB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T. turgidum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T. dicoccoides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (wild emmer)</t>
+    </r>
+  </si>
+  <si>
+    <t>AABBDD</t>
+  </si>
+  <si>
+    <r>
+      <t>T. aestivum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T. vulgare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(bread wheat)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T. spelta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(spelt)</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TE\Wheat</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>class II/DNA TE</t>
+  </si>
+  <si>
+    <t>subclass 1</t>
+  </si>
+  <si>
+    <t>subclass 2</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>Crypton</t>
+  </si>
+  <si>
+    <t>Helitron</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>class I/retroTE</t>
+  </si>
+  <si>
+    <t>LTR retroTE</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>Copia</t>
+  </si>
+  <si>
+    <t>Gypsy</t>
+  </si>
+  <si>
+    <t>Bel–Pao</t>
+  </si>
+  <si>
+    <t>Retrovirus</t>
+  </si>
+  <si>
+    <t>ERV</t>
+  </si>
+  <si>
+    <t>transposon</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>Ngaro</t>
+  </si>
+  <si>
+    <t>VIPER</t>
+  </si>
+  <si>
+    <t>PLE</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>non-LTR retroTE</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Jockey</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>SINE</t>
+  </si>
+  <si>
+    <t>tRNA</t>
+  </si>
+  <si>
+    <t>7SL</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>Censor</t>
+  </si>
+  <si>
+    <t>PILER</t>
+  </si>
+  <si>
+    <t>INSurVeyor</t>
+  </si>
+  <si>
+    <t>RepeatModeler2</t>
+  </si>
+  <si>
+    <t>TIR-Learner</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>sample 1</t>
+  </si>
+  <si>
+    <t>sample 2</t>
+  </si>
+  <si>
+    <t>sample 3</t>
+  </si>
+  <si>
+    <t>TE annotation</t>
+  </si>
+  <si>
+    <t>MGEScan</t>
+  </si>
+  <si>
+    <t>MITE-Hunter</t>
+  </si>
+  <si>
+    <t>LTR_Finder</t>
+  </si>
+  <si>
+    <t>RECON</t>
+  </si>
+  <si>
+    <t>RepeatMasker</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Structure based</t>
+  </si>
+  <si>
+    <t>Homology based</t>
+  </si>
+  <si>
+    <t>De novo</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Shortcomings</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Chinese Spring</t>
+  </si>
+  <si>
+    <t>AK58</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T. durum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(hard wheat, Macaroni wheat)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T. dicoccum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cultivated emmer, emmer wheat)</t>
+    </r>
+  </si>
+  <si>
+    <t>T. compactum</t>
+  </si>
+  <si>
+    <t>(club wheat)</t>
+  </si>
+  <si>
+    <t>T. sphaerococcum</t>
+  </si>
+  <si>
+    <t>(short wheat)</t>
+  </si>
+  <si>
+    <t>Species synonym</t>
+  </si>
+  <si>
+    <t>T. spelta L.</t>
+  </si>
+  <si>
+    <r>
+      <t>T. vulgare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Host</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T. aestivum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssp. spelta</t>
+    </r>
+  </si>
+  <si>
+    <t>Triticum tauschii</t>
+  </si>
+  <si>
+    <t>T. aestivum subsp. sphaerococcum</t>
+  </si>
+  <si>
+    <t>T. aestivum subsp. compactum</t>
+  </si>
+  <si>
+    <t>T. aethiopicum</t>
+  </si>
+  <si>
+    <t>T. dicoccoides</t>
+  </si>
+  <si>
+    <t>T. turgidum subsp. dicoccoides</t>
+  </si>
+  <si>
+    <r>
+      <t>T. monococcum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (cultivated einkorn, einkorn wheat, one-grained wheat, small spelt)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aegilpoides</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ssp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monococcum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SubSpecies</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Varietas</t>
+    </r>
+  </si>
+  <si>
+    <t>reference genome</t>
+  </si>
+  <si>
+    <t>http://www.drive5.com/piler/</t>
+  </si>
+  <si>
+    <t>TA299</t>
+  </si>
+  <si>
+    <t>TA10622</t>
+  </si>
+  <si>
+    <t>DRYAD</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/downloads/file_stream/2350888</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/downloads/file_stream/2350887</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/downloads/file_stream/2350896</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/downloads/file_stream/2350897</t>
+  </si>
+  <si>
+    <t>NCBI</t>
+  </si>
+  <si>
+    <t>Aet v4.0</t>
+  </si>
+  <si>
+    <t>Ensembl genome</t>
+  </si>
+  <si>
+    <t>datasets download genome accession GCF_002575655.2 --include gff3,rna,cds,protein,genome,seq-report</t>
+  </si>
+  <si>
+    <t>URL/software command</t>
+  </si>
+  <si>
+    <t>WEW_v1.0</t>
+  </si>
+  <si>
+    <t>Svevo_v1.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subsp.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> strangulata</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ssp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dicoccum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ssp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>durum</t>
+    </r>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>RLG</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>RLB</t>
+  </si>
+  <si>
+    <t>RLR</t>
+  </si>
+  <si>
+    <t>RLE</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>RLX</t>
+  </si>
+  <si>
+    <t>DIRs</t>
+  </si>
+  <si>
+    <t>RYD</t>
+  </si>
+  <si>
+    <t>RYN</t>
+  </si>
+  <si>
+    <t>RYV</t>
+  </si>
+  <si>
+    <t>RPP</t>
+  </si>
+  <si>
+    <t>RIR</t>
+  </si>
+  <si>
+    <t>RIT</t>
+  </si>
+  <si>
+    <t>RIJ</t>
+  </si>
+  <si>
+    <t>RIL</t>
+  </si>
+  <si>
+    <t>RII</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>RIX</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>RSL</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>unknow</t>
+  </si>
+  <si>
+    <t>RSX</t>
+  </si>
+  <si>
+    <t>RXX</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>hAT</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>DTH</t>
+  </si>
+  <si>
+    <t>DTM</t>
+  </si>
+  <si>
+    <t>DTT</t>
+  </si>
+  <si>
+    <t>PIF/Harbinger</t>
+  </si>
+  <si>
+    <t>DHH</t>
+  </si>
+  <si>
+    <t>DYC</t>
+  </si>
+  <si>
+    <t>DMM</t>
+  </si>
+  <si>
+    <t>DXX</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>Transib </t>
+  </si>
+  <si>
+    <t>DTR</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>PiggyBac</t>
+  </si>
+  <si>
+    <t>DTB</t>
+  </si>
+  <si>
+    <t>DTX</t>
+  </si>
+  <si>
+    <t>https://github.com/jdaron/CLARI-TE</t>
+  </si>
+  <si>
+    <t>CLARI-TE</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>TE Annotation</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>sweet orange</t>
+  </si>
+  <si>
+    <t>somatic variation, asexual propagation</t>
+  </si>
+  <si>
+    <t>Tc1/Mariner, Pogo</t>
+  </si>
+  <si>
+    <t>CACTA (En-Spm)</t>
+  </si>
+  <si>
+    <t>Mutator (MULE, MuDR)</t>
+  </si>
+  <si>
+    <t>97 - 735</t>
+  </si>
+  <si>
+    <t>247 - 1194</t>
+  </si>
+  <si>
+    <t>369097 - 1095976</t>
+  </si>
+  <si>
+    <t>2209 - 48828</t>
+  </si>
+  <si>
+    <t>4922 - 95785</t>
+  </si>
+  <si>
+    <t>644 - 184898</t>
+  </si>
+  <si>
+    <t>2829 - 108199</t>
+  </si>
+  <si>
+    <t>971 - 12509</t>
+  </si>
+  <si>
+    <t>9597 - 109873</t>
+  </si>
+  <si>
+    <t>146393 - 596077</t>
+  </si>
+  <si>
+    <t>337081 - 1586131</t>
+  </si>
+  <si>
+    <t>14282 - 147763</t>
+  </si>
+  <si>
+    <t>8071 - 285813</t>
+  </si>
+  <si>
+    <t>Transposon_Name orientation_is_5prime   Transposon_min_Start    Transposon_max_End      Transposon_Family       Transposon_Super_Family</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>TAIR10</t>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>jimai44</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>bpMasked</t>
+  </si>
+  <si>
+    <t>%masked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an efficient program for finding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full-length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LTR retrotranspsons in genome sequences</t>
+    </r>
+  </si>
+  <si>
+    <t>LTR_retriever</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/LTR_FINDER_parallel</t>
+  </si>
+  <si>
+    <t>LTRharvest</t>
+  </si>
+  <si>
+    <t>https://genometools.org/pub/binary_distributions/gt-1.6.2-Linux_x86_64-64bit-complete.tar.gz</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>GenomeTools</t>
+  </si>
+  <si>
+    <t>Generic Repeat Finder</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>terminal inverted repeats (TIRs), terminal direct repeats (TDRs), interspersed repeats, miniature inverted repeat transposable elements (MITEs), and long terminal repeat (LTR) transposons</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDTA (The Extensive </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">de novo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TE Annotator)</t>
+    </r>
+  </si>
+  <si>
+    <t>C++ program package</t>
+  </si>
+  <si>
+    <t>high accurate and sensitive</t>
+  </si>
+  <si>
+    <t>open-source ensemble method, Generic Repeat Finder is used in TIR-Learner as the search engine.</t>
+  </si>
+  <si>
+    <t>https://github.com/WeijiaSu/TIR-Learner-Rice</t>
+  </si>
+  <si>
+    <t>Java program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HelitronScanner </t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/helitronscanner/</t>
+  </si>
+  <si>
+    <t>Tesorter</t>
+  </si>
+  <si>
+    <t>accurate classification of TEs</t>
+  </si>
+  <si>
+    <t>http://target.iplantcollaborative.org/mite_hunter/MITE%20Hunter-11-2011.zip</t>
+  </si>
+  <si>
+    <t>http://target.iplantcollaborative.org/mite_hunter.html</t>
+  </si>
+  <si>
+    <t>https://www.girinst.org/downloads/software/censor/protected/censor-4.2.30.tar.gz</t>
+  </si>
+  <si>
+    <t>https://www.girinst.org/downloads/software/censor/</t>
+  </si>
+  <si>
+    <t>4.2.30</t>
+  </si>
+  <si>
+    <t>https://www.repeatmasker.org/RepeatMasker/RepeatMasker-4.1.6.tar.gz</t>
+  </si>
+  <si>
+    <t>4.1.6</t>
+  </si>
+  <si>
+    <t>https://www.repeatmasker.org/RepeatMasker/</t>
+  </si>
+  <si>
+    <t>LTR_FINDER_parallel, LTR_FINDER-1.0.7</t>
+  </si>
+  <si>
+    <t>MITE-Hunter Scripts</t>
+  </si>
+  <si>
+    <t>https://mgescan.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>https://github.com/MGEScan/mgescan/archive/refs/tags/1.1.tar.gz</t>
+  </si>
+  <si>
+    <t>http://www.drive5.com/piler/piler_source.tar.gz</t>
+  </si>
+  <si>
+    <t>http://eddylab.org/software/recon/RECON1.05.tar.gz</t>
+  </si>
+  <si>
+    <t>http://eddylab.org/software/recon/</t>
+  </si>
+  <si>
+    <t>v1.11</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/LTR_retriever/archive/refs/tags/v2.9.8.tar.gz</t>
+  </si>
+  <si>
+    <t>v2.9.8</t>
+  </si>
+  <si>
+    <t>https://github.com/Dfam-consortium/RepeatModeler/archive/refs/tags/2.0.5.tar.gz</t>
+  </si>
+  <si>
+    <t>RepeatModeler 2.0.5</t>
+  </si>
+  <si>
+    <t>https://www.repeatmasker.org/RepeatModeler/</t>
+  </si>
+  <si>
+    <t>https://github.com/kensung-lab/INSurVeyor/archive/refs/tags/1.1.2.tar.gz</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+  </si>
+  <si>
+    <t>https://github.com/bioinfolabmu/GenericRepeatFinder/archive/refs/tags/v1.0.2.tar.gz</t>
+  </si>
+  <si>
+    <t>big update to v2.2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/EDTA/archive/refs/tags/v2.2.0.tar.gz</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>v1.4.6</t>
+  </si>
+  <si>
+    <t>https://github.com/zhangrengang/TEsorter/archive/refs/tags/v1.4.6.tar.gz</t>
+  </si>
+  <si>
+    <t>Count now</t>
+  </si>
+  <si>
+    <t>trf</t>
+  </si>
+  <si>
+    <t>Aegilops tauschii</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
+  </si>
+  <si>
+    <t>Triticum durum</t>
+  </si>
+  <si>
+    <t>Triticum monococcum</t>
+  </si>
+  <si>
+    <t>Triticum unknown</t>
+  </si>
+  <si>
+    <t>Triticum urartu</t>
+  </si>
+  <si>
+    <t>TREP</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>729247 230770</t>
+  </si>
+  <si>
+    <t>Sola1</t>
+  </si>
+  <si>
+    <t>pararetrovirus</t>
+  </si>
+  <si>
+    <t>Maverick (polinton)</t>
+  </si>
+  <si>
+    <t>Chinese Spring v1.0</t>
+  </si>
+  <si>
+    <t>http://repeatexplorer.org/repeatexplorer/wp-content/uploads/2018/10/Viridiplantae_v3.0.zip</t>
+  </si>
+  <si>
+    <t>REXdb</t>
+  </si>
+  <si>
+    <t>TE protein domain</t>
+  </si>
+  <si>
+    <t>Dfam</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare</t>
+  </si>
+  <si>
+    <t>no_match</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>CS chr1A</t>
+  </si>
+  <si>
+    <t>EDTA chr1A</t>
+  </si>
+  <si>
+    <t>repeat_region</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">white_grain, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aestivum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cv. AK58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aestivum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cv. KN9204</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Ae. tauschii</t>
     </r>
     <r>
@@ -180,342 +1341,27 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T. monococcum </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L.</t>
-    </r>
-  </si>
-  <si>
-    <t>AABB</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T. turgidum </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T. dicoccoides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (wild emmer)</t>
-    </r>
-  </si>
-  <si>
-    <t>AABBDD</t>
-  </si>
-  <si>
-    <r>
-      <t>T. aestivum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T. vulgare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(bread wheat)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T. spelta </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(spelt)</t>
-    </r>
-  </si>
-  <si>
-    <t>Data Source</t>
-  </si>
-  <si>
-    <t>EBI</t>
-  </si>
-  <si>
-    <t>Tu</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>TE\Wheat</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>class II/DNA TE</t>
-  </si>
-  <si>
-    <t>subclass 1</t>
-  </si>
-  <si>
-    <t>subclass 2</t>
-  </si>
-  <si>
-    <t>TIR</t>
-  </si>
-  <si>
-    <t>Crypton</t>
-  </si>
-  <si>
-    <t>Helitron</t>
-  </si>
-  <si>
-    <t>Maverick</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>class I/retroTE</t>
-  </si>
-  <si>
-    <t>LTR retroTE</t>
-  </si>
-  <si>
-    <t>LTR</t>
-  </si>
-  <si>
-    <t>Copia</t>
-  </si>
-  <si>
-    <t>Gypsy</t>
-  </si>
-  <si>
-    <t>Bel–Pao</t>
-  </si>
-  <si>
-    <t>Retrovirus</t>
-  </si>
-  <si>
-    <t>ERV</t>
-  </si>
-  <si>
-    <t>transposon</t>
-  </si>
-  <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>Ngaro</t>
-  </si>
-  <si>
-    <t>VIPER</t>
-  </si>
-  <si>
-    <t>PLE</t>
-  </si>
-  <si>
-    <t>Penelope</t>
-  </si>
-  <si>
-    <t>non-LTR retroTE</t>
-  </si>
-  <si>
-    <t>LINE</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RTE</t>
-  </si>
-  <si>
-    <t>Jockey</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>SINE</t>
-  </si>
-  <si>
-    <t>tRNA</t>
-  </si>
-  <si>
-    <t>7SL</t>
-  </si>
-  <si>
-    <t>5S</t>
-  </si>
-  <si>
-    <t>Censor</t>
-  </si>
-  <si>
-    <t>PILER</t>
-  </si>
-  <si>
-    <t>INSurVeyor</t>
-  </si>
-  <si>
-    <t>RepeatModeler2</t>
-  </si>
-  <si>
-    <t>TIR-Learner</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>sample 1</t>
-  </si>
-  <si>
-    <t>sample 2</t>
-  </si>
-  <si>
-    <t>sample 3</t>
-  </si>
-  <si>
-    <t>TE annotation</t>
-  </si>
-  <si>
-    <t>MGEScan</t>
-  </si>
-  <si>
-    <t>MITE-Hunter</t>
-  </si>
-  <si>
-    <t>LTR_Finder</t>
-  </si>
-  <si>
-    <t>RECON</t>
-  </si>
-  <si>
-    <t>RepeatMasker</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Structure based</t>
-  </si>
-  <si>
-    <t>Homology based</t>
-  </si>
-  <si>
-    <t>De novo</t>
-  </si>
-  <si>
-    <t>Advantages</t>
-  </si>
-  <si>
-    <t>Shortcomings</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Chinese Spring</t>
-  </si>
-  <si>
-    <t>AK58</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T. durum </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(hard wheat, Macaroni wheat)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T. dicoccum </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(cultivated emmer, emmer wheat)</t>
-    </r>
-  </si>
-  <si>
-    <t>T. compactum</t>
-  </si>
-  <si>
-    <t>(club wheat)</t>
-  </si>
-  <si>
-    <t>T. sphaerococcum</t>
-  </si>
-  <si>
-    <t>(short wheat)</t>
-  </si>
-  <si>
-    <t>Species synonym</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acc. AL8/78</t>
+    </r>
   </si>
   <si>
     <r>
@@ -539,785 +1385,16 @@
       </rPr>
       <t> lutescens </t>
     </r>
-  </si>
-  <si>
-    <t>white_grain</t>
-  </si>
-  <si>
-    <t>T. spelta L.</t>
-  </si>
-  <si>
-    <r>
-      <t>T. vulgare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Host</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>T. aestivum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> L. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ssp. spelta</t>
-    </r>
-  </si>
-  <si>
-    <t>Triticum tauschii</t>
-  </si>
-  <si>
-    <t>T. aestivum subsp. sphaerococcum</t>
-  </si>
-  <si>
-    <t>T. aestivum subsp. compactum</t>
-  </si>
-  <si>
-    <t>T. aethiopicum</t>
-  </si>
-  <si>
-    <t>T. dicoccoides</t>
-  </si>
-  <si>
-    <t>T. turgidum subsp. dicoccoides</t>
-  </si>
-  <si>
-    <r>
-      <t>T. monococcum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (cultivated einkorn, einkorn wheat, one-grained wheat, small spelt)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ssp.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aegilpoides</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>monococcum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SubSpecies</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/Varietas</t>
-    </r>
-  </si>
-  <si>
-    <t>reference genome</t>
-  </si>
-  <si>
-    <t>http://www.drive5.com/piler/</t>
-  </si>
-  <si>
-    <t>TA299</t>
-  </si>
-  <si>
-    <t>TA10622</t>
-  </si>
-  <si>
-    <t>DRYAD</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/downloads/file_stream/2350888</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/downloads/file_stream/2350887</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/downloads/file_stream/2350896</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/downloads/file_stream/2350897</t>
-  </si>
-  <si>
-    <t>NCBI</t>
-  </si>
-  <si>
-    <t>Aet v4.0</t>
-  </si>
-  <si>
-    <t>Ensembl genome</t>
-  </si>
-  <si>
-    <t>datasets download genome accession GCF_002575655.2 --include gff3,rna,cds,protein,genome,seq-report</t>
-  </si>
-  <si>
-    <t>URL/software command</t>
-  </si>
-  <si>
-    <t>WEW_v1.0</t>
-  </si>
-  <si>
-    <t>Svevo_v1.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subsp.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> strangulata</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dicoccum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ssp. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>durum</t>
-    </r>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>RLG</t>
-  </si>
-  <si>
-    <t>RLC</t>
-  </si>
-  <si>
-    <t>RLB</t>
-  </si>
-  <si>
-    <t>RLR</t>
-  </si>
-  <si>
-    <t>RLE</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>RLX</t>
-  </si>
-  <si>
-    <t>DIRs</t>
-  </si>
-  <si>
-    <t>RYD</t>
-  </si>
-  <si>
-    <t>RYN</t>
-  </si>
-  <si>
-    <t>RYV</t>
-  </si>
-  <si>
-    <t>RPP</t>
-  </si>
-  <si>
-    <t>RIR</t>
-  </si>
-  <si>
-    <t>RIT</t>
-  </si>
-  <si>
-    <t>RIJ</t>
-  </si>
-  <si>
-    <t>RIL</t>
-  </si>
-  <si>
-    <t>RII</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>RIX</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>RSL</t>
-  </si>
-  <si>
-    <t>RSS</t>
-  </si>
-  <si>
-    <t>unknow</t>
-  </si>
-  <si>
-    <t>RSX</t>
-  </si>
-  <si>
-    <t>RXX</t>
-  </si>
-  <si>
-    <t>DTA</t>
-  </si>
-  <si>
-    <t>hAT</t>
-  </si>
-  <si>
-    <t>DTC</t>
-  </si>
-  <si>
-    <t>DTH</t>
-  </si>
-  <si>
-    <t>DTM</t>
-  </si>
-  <si>
-    <t>DTT</t>
-  </si>
-  <si>
-    <t>PIF/Harbinger</t>
-  </si>
-  <si>
-    <t>DHH</t>
-  </si>
-  <si>
-    <t>DYC</t>
-  </si>
-  <si>
-    <t>DMM</t>
-  </si>
-  <si>
-    <t>DXX</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>DTE</t>
-  </si>
-  <si>
-    <t>Transib </t>
-  </si>
-  <si>
-    <t>DTR</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>DTP</t>
-  </si>
-  <si>
-    <t>PiggyBac</t>
-  </si>
-  <si>
-    <t>DTB</t>
-  </si>
-  <si>
-    <t>DTX</t>
-  </si>
-  <si>
-    <t>https://github.com/jdaron/CLARI-TE</t>
-  </si>
-  <si>
-    <t>CLARI-TE</t>
-  </si>
-  <si>
-    <t>Character</t>
-  </si>
-  <si>
-    <t>TE Annotation</t>
-  </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>sweet orange</t>
-  </si>
-  <si>
-    <t>somatic variation, asexual propagation</t>
-  </si>
-  <si>
-    <t>Tc1/Mariner, Pogo</t>
-  </si>
-  <si>
-    <t>CACTA (En-Spm)</t>
-  </si>
-  <si>
-    <t>Mutator (MULE, MuDR)</t>
-  </si>
-  <si>
-    <t>97 - 735</t>
-  </si>
-  <si>
-    <t>247 - 1194</t>
-  </si>
-  <si>
-    <t>369097 - 1095976</t>
-  </si>
-  <si>
-    <t>2209 - 48828</t>
-  </si>
-  <si>
-    <t>4922 - 95785</t>
-  </si>
-  <si>
-    <t>644 - 184898</t>
-  </si>
-  <si>
-    <t>2829 - 108199</t>
-  </si>
-  <si>
-    <t>971 - 12509</t>
-  </si>
-  <si>
-    <t>9597 - 109873</t>
-  </si>
-  <si>
-    <t>146393 - 596077</t>
-  </si>
-  <si>
-    <t>337081 - 1586131</t>
-  </si>
-  <si>
-    <t>14282 - 147763</t>
-  </si>
-  <si>
-    <t>8071 - 285813</t>
-  </si>
-  <si>
-    <t>Transposon_Name orientation_is_5prime   Transposon_min_Start    Transposon_max_End      Transposon_Family       Transposon_Super_Family</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>TAIR10</t>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>jimai44</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>bpMasked</t>
-  </si>
-  <si>
-    <t>%masked</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">an efficient program for finding </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>full-length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> LTR retrotranspsons in genome sequences</t>
-    </r>
-  </si>
-  <si>
-    <t>LTR_retriever</t>
-  </si>
-  <si>
-    <t>https://github.com/oushujun/LTR_FINDER_parallel</t>
-  </si>
-  <si>
-    <t>LTRharvest</t>
-  </si>
-  <si>
-    <t>https://genometools.org/pub/binary_distributions/gt-1.6.2-Linux_x86_64-64bit-complete.tar.gz</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>GenomeTools</t>
-  </si>
-  <si>
-    <t>Generic Repeat Finder</t>
-  </si>
-  <si>
-    <t>Detection</t>
-  </si>
-  <si>
-    <t>terminal inverted repeats (TIRs), terminal direct repeats (TDRs), interspersed repeats, miniature inverted repeat transposable elements (MITEs), and long terminal repeat (LTR) transposons</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EDTA (The Extensive </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">de novo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TE Annotator)</t>
-    </r>
-  </si>
-  <si>
-    <t>C++ program package</t>
-  </si>
-  <si>
-    <t>high accurate and sensitive</t>
-  </si>
-  <si>
-    <t>open-source ensemble method, Generic Repeat Finder is used in TIR-Learner as the search engine.</t>
-  </si>
-  <si>
-    <t>https://github.com/WeijiaSu/TIR-Learner-Rice</t>
-  </si>
-  <si>
-    <t>Java program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HelitronScanner </t>
-  </si>
-  <si>
-    <t>https://sourceforge.net/projects/helitronscanner/</t>
-  </si>
-  <si>
-    <t>Tesorter</t>
-  </si>
-  <si>
-    <t>accurate classification of TEs</t>
-  </si>
-  <si>
-    <t>http://target.iplantcollaborative.org/mite_hunter/MITE%20Hunter-11-2011.zip</t>
-  </si>
-  <si>
-    <t>http://target.iplantcollaborative.org/mite_hunter.html</t>
-  </si>
-  <si>
-    <t>https://www.girinst.org/downloads/software/censor/protected/censor-4.2.30.tar.gz</t>
-  </si>
-  <si>
-    <t>https://www.girinst.org/downloads/software/censor/</t>
-  </si>
-  <si>
-    <t>4.2.30</t>
-  </si>
-  <si>
-    <t>https://www.repeatmasker.org/RepeatMasker/RepeatMasker-4.1.6.tar.gz</t>
-  </si>
-  <si>
-    <t>4.1.6</t>
-  </si>
-  <si>
-    <t>https://www.repeatmasker.org/RepeatMasker/</t>
-  </si>
-  <si>
-    <t>LTR_FINDER_parallel, LTR_FINDER-1.0.7</t>
-  </si>
-  <si>
-    <t>MITE-Hunter Scripts</t>
-  </si>
-  <si>
-    <t>https://mgescan.readthedocs.io/en/latest/</t>
-  </si>
-  <si>
-    <t>https://github.com/MGEScan/mgescan/archive/refs/tags/1.1.tar.gz</t>
-  </si>
-  <si>
-    <t>http://www.drive5.com/piler/piler_source.tar.gz</t>
-  </si>
-  <si>
-    <t>http://eddylab.org/software/recon/RECON1.05.tar.gz</t>
-  </si>
-  <si>
-    <t>http://eddylab.org/software/recon/</t>
-  </si>
-  <si>
-    <t>v1.11</t>
-  </si>
-  <si>
-    <t>https://github.com/oushujun/LTR_retriever/archive/refs/tags/v2.9.8.tar.gz</t>
-  </si>
-  <si>
-    <t>v2.9.8</t>
-  </si>
-  <si>
-    <t>https://github.com/Dfam-consortium/RepeatModeler/archive/refs/tags/2.0.5.tar.gz</t>
-  </si>
-  <si>
-    <t>RepeatModeler 2.0.5</t>
-  </si>
-  <si>
-    <t>https://www.repeatmasker.org/RepeatModeler/</t>
-  </si>
-  <si>
-    <t>https://github.com/kensung-lab/INSurVeyor/archive/refs/tags/1.1.2.tar.gz</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>v1.0.2</t>
-  </si>
-  <si>
-    <t>https://github.com/bioinfolabmu/GenericRepeatFinder/archive/refs/tags/v1.0.2.tar.gz</t>
-  </si>
-  <si>
-    <t>big update to v2.2.0</t>
-  </si>
-  <si>
-    <t>https://github.com/oushujun/EDTA/archive/refs/tags/v2.2.0.tar.gz</t>
-  </si>
-  <si>
-    <t>V1.0</t>
-  </si>
-  <si>
-    <t>v1.4.6</t>
-  </si>
-  <si>
-    <t>https://github.com/zhangrengang/TEsorter/archive/refs/tags/v1.4.6.tar.gz</t>
-  </si>
-  <si>
-    <t>Count now</t>
-  </si>
-  <si>
-    <t>trf</t>
-  </si>
-  <si>
-    <t>Aegilops tauschii</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Triticum aestivum</t>
-  </si>
-  <si>
-    <t>Triticum durum</t>
-  </si>
-  <si>
-    <t>Triticum monococcum</t>
-  </si>
-  <si>
-    <t>Triticum unknown</t>
-  </si>
-  <si>
-    <t>Triticum urartu</t>
-  </si>
-  <si>
-    <t>TREP</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>729247 230770</t>
-  </si>
-  <si>
-    <t>Sola1</t>
-  </si>
-  <si>
-    <t>pararetrovirus</t>
-  </si>
-  <si>
-    <t>Maverick (polinton)</t>
-  </si>
-  <si>
-    <t>Chinese Spring v1.0</t>
-  </si>
-  <si>
-    <t>http://repeatexplorer.org/repeatexplorer/wp-content/uploads/2018/10/Viridiplantae_v3.0.zip</t>
-  </si>
-  <si>
-    <t>REXdb</t>
-  </si>
-  <si>
-    <t>TE protein domain</t>
-  </si>
-  <si>
-    <t>Dfam</t>
-  </si>
-  <si>
-    <t>Hordeum vulgare</t>
-  </si>
-  <si>
-    <t>no_match</t>
-  </si>
-  <si>
-    <t>Ontology</t>
-  </si>
-  <si>
-    <t>CS chr1A</t>
-  </si>
-  <si>
-    <t>EDTA chr1A</t>
-  </si>
-  <si>
-    <t>repeat_region</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cv. CS</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1525,14 +1602,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1848,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F705FDD1-2238-E24B-929D-FCA6BC6F278B}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,28 +1958,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1916,22 +1993,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>117</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>120</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="3">
@@ -1946,25 +2023,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K3" s="3">
         <v>2023</v>
@@ -1975,22 +2052,22 @@
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="K4" s="3">
         <v>2023</v>
@@ -2006,7 +2083,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3">
         <v>2018</v>
@@ -2014,23 +2091,23 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K6" s="3">
         <v>2019</v>
@@ -2040,16 +2117,16 @@
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2058,16 +2135,16 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3">
         <v>2019</v>
@@ -2075,63 +2152,63 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="28"/>
       <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="3">
         <v>2023</v>
@@ -2142,36 +2219,47 @@
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="5" t="s">
-        <v>93</v>
+      <c r="E13" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" s="3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" s="3">
         <v>2023</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F12:F14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2193,24 +2281,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3">
         <v>22</v>
@@ -2219,7 +2307,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3">
         <v>801</v>
@@ -2228,7 +2316,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3">
         <v>100</v>
@@ -2237,7 +2325,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" s="3">
         <v>169</v>
@@ -2246,7 +2334,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6" s="3">
         <v>70</v>
@@ -2255,7 +2343,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C7" s="3">
         <v>22</v>
@@ -2263,10 +2351,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C8" s="3">
         <v>1101</v>
@@ -2275,7 +2363,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C9" s="3">
         <v>1308</v>
@@ -2283,13 +2371,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2323,60 +2411,60 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2384,81 +2472,81 @@
       <c r="B4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>219</v>
-      </c>
       <c r="F8" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -2466,142 +2554,142 @@
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F11" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>213</v>
-      </c>
       <c r="G14" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -2649,108 +2737,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="P2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="30"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>30</v>
+      <c r="C3" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F3" s="12">
         <v>53</v>
@@ -2759,7 +2847,7 @@
         <v>1854</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I3" s="12">
         <v>101373</v>
@@ -2775,14 +2863,14 @@
       </c>
     </row>
     <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2790,14 +2878,14 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F5" s="12">
         <v>29750</v>
@@ -2806,7 +2894,7 @@
         <v>4400</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I5" s="12">
         <v>1712031</v>
@@ -2822,14 +2910,14 @@
       </c>
     </row>
     <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2837,14 +2925,14 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F7" s="12">
         <v>1861</v>
@@ -2853,7 +2941,7 @@
         <v>4777</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I7" s="12">
         <v>178793</v>
@@ -2869,14 +2957,14 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F8" s="12">
         <v>3457</v>
@@ -2885,7 +2973,7 @@
         <v>5392</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I8" s="12">
         <v>320703</v>
@@ -2902,14 +2990,14 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -2918,11 +3006,11 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -2934,11 +3022,11 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2950,14 +3038,14 @@
       <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2966,14 +3054,14 @@
       <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F13" s="12">
         <v>6945</v>
@@ -2982,7 +3070,7 @@
         <v>11134</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I13" s="12">
         <v>539870</v>
@@ -2998,14 +3086,14 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F14" s="16">
         <v>4331</v>
@@ -3014,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I14" s="12">
         <v>100192</v>
@@ -3037,16 +3125,16 @@
       <c r="V14" s="19"/>
     </row>
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3060,18 +3148,18 @@
       <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
-        <v>29</v>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F16" s="12">
         <v>27</v>
@@ -3080,7 +3168,7 @@
         <v>16490</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I16" s="12">
         <v>266169</v>
@@ -3105,16 +3193,16 @@
       <c r="X16" s="19"/>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3133,16 +3221,16 @@
       <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="31"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="30"/>
       <c r="D18" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F18" s="16">
         <v>482</v>
@@ -3151,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" s="12">
         <v>13011</v>
@@ -3176,20 +3264,20 @@
       <c r="X18" s="19"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="D19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F19" s="11">
         <v>22463</v>
@@ -3198,7 +3286,7 @@
         <v>4947</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I19" s="19">
         <v>788489</v>
@@ -3223,14 +3311,14 @@
       <c r="X19" s="19"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="12">
         <v>60531</v>
@@ -3239,7 +3327,7 @@
         <v>11215</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I20" s="19">
         <v>1975106</v>
@@ -3264,14 +3352,14 @@
       <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3286,14 +3374,14 @@
       <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3309,14 +3397,14 @@
       <c r="X22" s="19"/>
     </row>
     <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3331,14 +3419,14 @@
       <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F24" s="12">
         <v>5918</v>
@@ -3347,7 +3435,7 @@
         <v>7257</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I24" s="19">
         <v>371387</v>
@@ -3370,16 +3458,16 @@
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
-        <v>44</v>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -3393,14 +3481,14 @@
       <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3414,14 +3502,14 @@
       <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3435,16 +3523,16 @@
       <c r="X27" s="19"/>
     </row>
     <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -3461,18 +3549,18 @@
       <c r="X28" s="19"/>
     </row>
     <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="D29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -3487,14 +3575,14 @@
       <c r="X29" s="19"/>
     </row>
     <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -3509,14 +3597,14 @@
       <c r="X30" s="19"/>
     </row>
     <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3530,14 +3618,14 @@
       <c r="X31" s="19"/>
     </row>
     <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -3552,14 +3640,14 @@
       <c r="X32" s="19"/>
     </row>
     <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
@@ -3573,14 +3661,14 @@
       <c r="X33" s="19"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F34" s="16">
         <v>4437</v>
@@ -3589,7 +3677,7 @@
         <v>1306</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I34" s="12">
         <v>99861</v>
@@ -3612,16 +3700,16 @@
       <c r="X34" s="19"/>
     </row>
     <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -3636,14 +3724,14 @@
       <c r="X35" s="19"/>
     </row>
     <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -3659,14 +3747,14 @@
       <c r="X36" s="19"/>
     </row>
     <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
@@ -3682,14 +3770,14 @@
       <c r="X37" s="19"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F38" s="12">
         <v>271</v>
@@ -3721,16 +3809,16 @@
       <c r="X38" s="19"/>
     </row>
     <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="31"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="30"/>
       <c r="D39" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -3747,17 +3835,17 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="30"/>
       <c r="D40" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F40" s="16">
         <v>7655</v>
@@ -3766,13 +3854,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I40" s="12">
         <v>760109</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K40" s="12">
         <v>362123519</v>
@@ -3783,7 +3871,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12">
@@ -3803,7 +3891,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E43" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F43" s="12">
         <v>1832</v>
@@ -3814,7 +3902,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E44" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F44" s="12">
         <v>52847</v>
@@ -3825,7 +3913,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E45" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F45" s="9">
         <v>0</v>
@@ -3836,6 +3924,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:B15"/>
@@ -3847,14 +3943,6 @@
     <mergeCell ref="B35:C38"/>
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3887,50 +3975,50 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J3" s="7">
         <v>2019</v>
